--- a/natmiOut/OldD0/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.64711060813454</v>
+        <v>6.291738</v>
       </c>
       <c r="H2">
-        <v>5.64711060813454</v>
+        <v>18.875214</v>
       </c>
       <c r="I2">
-        <v>0.5752092944491589</v>
+        <v>0.5742845621220376</v>
       </c>
       <c r="J2">
-        <v>0.5752092944491589</v>
+        <v>0.5742845621220376</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N2">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P2">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q2">
-        <v>60.82880378374979</v>
+        <v>132.641248155486</v>
       </c>
       <c r="R2">
-        <v>60.82880378374979</v>
+        <v>1193.771233399374</v>
       </c>
       <c r="S2">
-        <v>0.01750599126092759</v>
+        <v>0.03282645098000485</v>
       </c>
       <c r="T2">
-        <v>0.01750599126092759</v>
+        <v>0.03282645098000485</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.64711060813454</v>
+        <v>6.291738</v>
       </c>
       <c r="H3">
-        <v>5.64711060813454</v>
+        <v>18.875214</v>
       </c>
       <c r="I3">
-        <v>0.5752092944491589</v>
+        <v>0.5742845621220376</v>
       </c>
       <c r="J3">
-        <v>0.5752092944491589</v>
+        <v>0.5742845621220376</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N3">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P3">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q3">
-        <v>1681.938792924945</v>
+        <v>1897.589116171716</v>
       </c>
       <c r="R3">
-        <v>1681.938792924945</v>
+        <v>17078.30204554544</v>
       </c>
       <c r="S3">
-        <v>0.4840470957646065</v>
+        <v>0.469621003785957</v>
       </c>
       <c r="T3">
-        <v>0.4840470957646065</v>
+        <v>0.469621003785957</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.64711060813454</v>
+        <v>6.291738</v>
       </c>
       <c r="H4">
-        <v>5.64711060813454</v>
+        <v>18.875214</v>
       </c>
       <c r="I4">
-        <v>0.5752092944491589</v>
+        <v>0.5742845621220376</v>
       </c>
       <c r="J4">
-        <v>0.5752092944491589</v>
+        <v>0.5742845621220376</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N4">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P4">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q4">
-        <v>255.9363204314456</v>
+        <v>290.270903467254</v>
       </c>
       <c r="R4">
-        <v>255.9363204314456</v>
+        <v>2612.438131205286</v>
       </c>
       <c r="S4">
-        <v>0.07365620742362484</v>
+        <v>0.07183710735607576</v>
       </c>
       <c r="T4">
-        <v>0.07365620742362484</v>
+        <v>0.07183710735607576</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.25062143238331</v>
+        <v>3.730603666666667</v>
       </c>
       <c r="H5">
-        <v>3.25062143238331</v>
+        <v>11.191811</v>
       </c>
       <c r="I5">
-        <v>0.3311051952743992</v>
+        <v>0.3405145117553424</v>
       </c>
       <c r="J5">
-        <v>0.3311051952743992</v>
+        <v>0.3405145117553424</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N5">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P5">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q5">
-        <v>35.01461667863708</v>
+        <v>78.64789136485011</v>
       </c>
       <c r="R5">
-        <v>35.01461667863708</v>
+        <v>707.831022283651</v>
       </c>
       <c r="S5">
-        <v>0.01007689672412565</v>
+        <v>0.01946401429774407</v>
       </c>
       <c r="T5">
-        <v>0.01007689672412565</v>
+        <v>0.01946401429774407</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.25062143238331</v>
+        <v>3.730603666666667</v>
       </c>
       <c r="H6">
-        <v>3.25062143238331</v>
+        <v>11.191811</v>
       </c>
       <c r="I6">
-        <v>0.3311051952743992</v>
+        <v>0.3405145117553424</v>
       </c>
       <c r="J6">
-        <v>0.3311051952743992</v>
+        <v>0.3405145117553424</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N6">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P6">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q6">
-        <v>968.1670269328793</v>
+        <v>1125.150620483078</v>
       </c>
       <c r="R6">
-        <v>968.1670269328793</v>
+        <v>10126.3555843477</v>
       </c>
       <c r="S6">
-        <v>0.2786298999542882</v>
+        <v>0.2784556252449755</v>
       </c>
       <c r="T6">
-        <v>0.2786298999542882</v>
+        <v>0.2784556252449755</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.25062143238331</v>
+        <v>3.730603666666667</v>
       </c>
       <c r="H7">
-        <v>3.25062143238331</v>
+        <v>11.191811</v>
       </c>
       <c r="I7">
-        <v>0.3311051952743992</v>
+        <v>0.3405145117553424</v>
       </c>
       <c r="J7">
-        <v>0.3311051952743992</v>
+        <v>0.3405145117553424</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N7">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P7">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q7">
-        <v>147.3234980241702</v>
+        <v>172.1123315690488</v>
       </c>
       <c r="R7">
-        <v>147.3234980241702</v>
+        <v>1549.010984121439</v>
       </c>
       <c r="S7">
-        <v>0.04239839859598537</v>
+        <v>0.04259487221262284</v>
       </c>
       <c r="T7">
-        <v>0.04239839859598537</v>
+        <v>0.04259487221262284</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.919756415649075</v>
+        <v>0.933443</v>
       </c>
       <c r="H8">
-        <v>0.919756415649075</v>
+        <v>2.800329</v>
       </c>
       <c r="I8">
-        <v>0.09368551027644177</v>
+        <v>0.08520092612262004</v>
       </c>
       <c r="J8">
-        <v>0.09368551027644177</v>
+        <v>0.08520092612262004</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.7716685584531</v>
+        <v>21.08181366666667</v>
       </c>
       <c r="N8">
-        <v>10.7716685584531</v>
+        <v>63.245441</v>
       </c>
       <c r="O8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="P8">
-        <v>0.03043412446541212</v>
+        <v>0.0571606014598545</v>
       </c>
       <c r="Q8">
-        <v>9.907311263882661</v>
+        <v>19.67867139445433</v>
       </c>
       <c r="R8">
-        <v>9.907311263882661</v>
+        <v>177.108042550089</v>
       </c>
       <c r="S8">
-        <v>0.002851236480358875</v>
+        <v>0.00487013618210559</v>
       </c>
       <c r="T8">
-        <v>0.002851236480358875</v>
+        <v>0.00487013618210559</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.919756415649075</v>
+        <v>0.933443</v>
       </c>
       <c r="H9">
-        <v>0.919756415649075</v>
+        <v>2.800329</v>
       </c>
       <c r="I9">
-        <v>0.09368551027644177</v>
+        <v>0.08520092612262004</v>
       </c>
       <c r="J9">
-        <v>0.09368551027644177</v>
+        <v>0.08520092612262004</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>297.840596658785</v>
+        <v>301.6001486666667</v>
       </c>
       <c r="N9">
-        <v>297.840596658785</v>
+        <v>904.800446</v>
       </c>
       <c r="O9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="P9">
-        <v>0.8415147328732707</v>
+        <v>0.8177496571571792</v>
       </c>
       <c r="Q9">
-        <v>273.940799617666</v>
+        <v>281.5265475718593</v>
       </c>
       <c r="R9">
-        <v>273.940799617666</v>
+        <v>2533.738928146734</v>
       </c>
       <c r="S9">
-        <v>0.07883773715437596</v>
+        <v>0.06967302812624669</v>
       </c>
       <c r="T9">
-        <v>0.07883773715437596</v>
+        <v>0.06967302812624669</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.919756415649075</v>
+        <v>0.933443</v>
       </c>
       <c r="H10">
-        <v>0.919756415649075</v>
+        <v>2.800329</v>
       </c>
       <c r="I10">
-        <v>0.09368551027644177</v>
+        <v>0.08520092612262004</v>
       </c>
       <c r="J10">
-        <v>0.09368551027644177</v>
+        <v>0.08520092612262004</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.3216411349859</v>
+        <v>46.13524966666667</v>
       </c>
       <c r="N10">
-        <v>45.3216411349859</v>
+        <v>138.405749</v>
       </c>
       <c r="O10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="P10">
-        <v>0.1280511426613172</v>
+        <v>0.1250897413829664</v>
       </c>
       <c r="Q10">
-        <v>41.68487020164831</v>
+        <v>43.06462585460234</v>
       </c>
       <c r="R10">
-        <v>41.68487020164831</v>
+        <v>387.5816326914211</v>
       </c>
       <c r="S10">
-        <v>0.01199653664170694</v>
+        <v>0.01065776181426776</v>
       </c>
       <c r="T10">
-        <v>0.01199653664170694</v>
+        <v>0.01065776181426776</v>
       </c>
     </row>
   </sheetData>
